--- a/biology/Médecine/Remaclus_Fuchs/Remaclus_Fuchs.xlsx
+++ b/biology/Médecine/Remaclus_Fuchs/Remaclus_Fuchs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Remaclus Fuchs ou Remacle Fusch, aussi connu sous le nom de Remacle de Limbourg, est un médecin allemand né à Limbourg vers 1510 et mort à Liège en 1587. Il exerça la médecine à Liège, après avoir voyagé en Allemagne, et s'occupa beaucoup, en même temps, d'histoire naturelle.
 </t>
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Morbi hispanici curandi methodus, (Paris, 1541, in-8°) ;
 Illustrium medicorum qui superiore sæculo floruerunt vitæ (Paris, 1541, in-8°) ;
@@ -543,7 +557,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En Belgique, la rue Fusch qui longe le Jardin botanique de Liège commémore son nom.
 </t>
@@ -574,7 +590,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Grand Dictionnaire universel du XIXe siècle</t>
         </is>
